--- a/Demo/Book1_2.xlsx
+++ b/Demo/Book1_2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_UftTest\UftTests\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sources\hpaa\uft\https___github.com_radislavB_UftTests.git\Demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -355,23 +355,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
